--- a/data/orders.xlsx
+++ b/data/orders.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,6 +585,84 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-07-10 13:48</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ShipovM</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2045675514</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Германия</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Netflix</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>79.73999999999999</v>
+      </c>
+      <c r="G5" t="n">
+        <v>120</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9568.799999999999</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Ожидание</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-07-10 13:48</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ShipovM</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2045675514</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Германия</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Netflix</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>79.73999999999999</v>
+      </c>
+      <c r="G6" t="n">
+        <v>120</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9568.799999999999</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Оплачено</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
